--- a/1erParcial/TP1-H_Clinicas/TP1TMG1_Pérez/Resultado Casos - Historias Clinicas.xlsx
+++ b/1erParcial/TP1-H_Clinicas/TP1TMG1_Pérez/Resultado Casos - Historias Clinicas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Google Drive\workspace\1erParcial\TP1-H_Clinicas\TP1TMG1_Pérez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ARIEL Datos\Ariel\Instituciones\Unlam\1113-Programacion-Avanzada\workspace\1erParcial\TP1-H_Clinicas\TP1TMG1_Pérez\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="77">
   <si>
     <t>CASOS</t>
   </si>
@@ -383,6 +383,18 @@
 5 Ariel Molina
 8 Juan Carlos
 9 Luis Enrique</t>
+  </si>
+  <si>
+    <t>No responde</t>
+  </si>
+  <si>
+    <t>14-Cantidad-en-considercion-hClinica_5.out</t>
+  </si>
+  <si>
+    <t>14-Cantidad-en-considercion-hClinica_6.out</t>
+  </si>
+  <si>
+    <t>14-Cantidad-en-considercion-hClinica_8.out</t>
   </si>
 </sst>
 </file>
@@ -972,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,6 +1040,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,47 +1124,51 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1478,22 +1521,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8">
         <v>1</v>
       </c>
@@ -1520,7 +1563,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -1538,7 +1581,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
@@ -1556,7 +1599,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1621,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
@@ -1602,7 +1645,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1661,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1644,7 +1687,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1703,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
       </c>
@@ -1678,7 +1721,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
@@ -1704,7 +1747,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="6.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
       <c r="D12" s="1"/>
@@ -1716,7 +1759,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
@@ -1728,7 +1771,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
       <c r="D14" s="1"/>
@@ -1740,7 +1783,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
@@ -1752,7 +1795,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1"/>
@@ -1764,7 +1807,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="17"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1"/>
@@ -1779,7 +1822,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="17" t="s">
         <v>30</v>
       </c>
@@ -1803,7 +1846,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="17" t="s">
         <v>31</v>
       </c>
@@ -1825,7 +1868,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="17" t="s">
         <v>34</v>
       </c>
@@ -1845,7 +1888,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="17" t="s">
         <v>32</v>
       </c>
@@ -1865,7 +1908,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="18" t="s">
         <v>28</v>
       </c>
@@ -1891,10 +1934,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="5" t="s">
         <v>10</v>
       </c>
@@ -1921,46 +1964,46 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
     </row>
     <row r="27" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H27"/>
@@ -1982,7 +2025,7 @@
     <mergeCell ref="A3:A22"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:J22">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1993,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,22 +2055,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="13">
         <v>1</v>
       </c>
@@ -2054,410 +2097,431 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="23">
         <v>3400</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="12">
         <v>12</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="12">
+    <row r="16" spans="1:10" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47">
         <v>14</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="C16" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="51" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2466,12 +2530,12 @@
     <mergeCell ref="A3:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="C16:J16">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:J16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"No responde"</formula>
     </cfRule>
   </conditionalFormatting>
